--- a/biology/Botanique/Guy_Xhonneux/Guy_Xhonneux.xlsx
+++ b/biology/Botanique/Guy_Xhonneux/Guy_Xhonneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guy Xhonneux Dewolf est un botaniste belge, spécialiste des cactus, né en 1953 à Boma, au Congo belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après l’indépendance il partit avec sa famille en Belgique où il termina ses études d’ingénieur agronome à Bruxelles.
 Durant son service social en Colombie pendant les années 1970, il participa aux différentes activités  du jardin botanique de Bogotá.
@@ -545,9 +559,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Novedades taxonómicas y sinopsis del género Melocactus Link. &amp; Otto. (Cactaceae) en Colombia. Rev. Acad. Colomb. Cienc. 26(100): 353-365 Guy Xhonneux &amp; Fernandez-Alonso. (2002)[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Novedades taxonómicas y sinopsis del género Melocactus Link. &amp; Otto. (Cactaceae) en Colombia. Rev. Acad. Colomb. Cienc. 26(100): 353-365 Guy Xhonneux &amp; Fernandez-Alonso. (2002)</t>
         </is>
       </c>
     </row>
@@ -575,18 +591,20 @@
           <t>Apparitions médiatiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Journal El Tiempo (Colombie, 1992)[2]
-Revue Trends (Belgique, 1995)[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Journal El Tiempo (Colombie, 1992)
+Revue Trends (Belgique, 1995)
 Journal Lien Horticole (France, 1997)
-Boletin Cultural y Bibliografico, Banco de la República (Colombie 1997)[4]
+Boletin Cultural y Bibliografico, Banco de la República (Colombie 1997)
 Journal Concorde (colombo-français, 1997)
-Revue Semana (Colombie 1998)[5]
-Une série de documentaires télévisés sur les plantes succulentes et leurs soins (1999)[6]
+Revue Semana (Colombie 1998)
+Une série de documentaires télévisés sur les plantes succulentes et leurs soins (1999)
 Revue Kaktusz-uilag(  Hongrie, 2004)
-Documentaire Les étrangers qui ont décidé d'adopter la Colombie Canal Caracol-Bancolombia, Colombie 2007 )[7]
-Enciclopedia Ilustrada de los cactus y otras suculentas, tomo II, Antonio Gomez (España 2006)[8]
+Documentaire Les étrangers qui ont décidé d'adopter la Colombie Canal Caracol-Bancolombia, Colombie 2007 )
+Enciclopedia Ilustrada de los cactus y otras suculentas, tomo II, Antonio Gomez (España 2006)
 Journal El Tiempo - Cundinamarca - (2008)</t>
         </is>
       </c>
